--- a/lib/tasks/students.xlsx
+++ b/lib/tasks/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>赵小红</t>
   </si>
@@ -226,6 +226,477 @@
   </si>
   <si>
     <t>梁伟芳</t>
+  </si>
+  <si>
+    <t>冯雅柔</t>
+  </si>
+  <si>
+    <t>陈俞均</t>
+  </si>
+  <si>
+    <t>梁轩铭</t>
+  </si>
+  <si>
+    <t>顾凯</t>
+  </si>
+  <si>
+    <t>严展菲</t>
+  </si>
+  <si>
+    <t>陈巧源</t>
+  </si>
+  <si>
+    <t>梁倩鸣</t>
+  </si>
+  <si>
+    <t>区警烨</t>
+  </si>
+  <si>
+    <t>赵铭扬</t>
+  </si>
+  <si>
+    <t>苏嘉昊</t>
+  </si>
+  <si>
+    <t>熊喆昊</t>
+  </si>
+  <si>
+    <t>欧芷琪</t>
+  </si>
+  <si>
+    <t>罗按琪</t>
+  </si>
+  <si>
+    <t>劳湘雨</t>
+  </si>
+  <si>
+    <t>劳浠雨</t>
+  </si>
+  <si>
+    <t>梁洛沂</t>
+  </si>
+  <si>
+    <t>梁雅善</t>
+  </si>
+  <si>
+    <t>莫童</t>
+  </si>
+  <si>
+    <t>李嘉俊</t>
+  </si>
+  <si>
+    <t>王映芝</t>
+  </si>
+  <si>
+    <t>陈晓彤</t>
+  </si>
+  <si>
+    <t>方梓曦</t>
+  </si>
+  <si>
+    <t>顾安谊</t>
+  </si>
+  <si>
+    <t>朱梓轩</t>
+  </si>
+  <si>
+    <t>余树森</t>
+  </si>
+  <si>
+    <t>苏浩飞</t>
+  </si>
+  <si>
+    <t>苏艺涵</t>
+  </si>
+  <si>
+    <t>梁裕华</t>
+  </si>
+  <si>
+    <t>冼彦昌</t>
+  </si>
+  <si>
+    <t>陈冠兆</t>
+  </si>
+  <si>
+    <t>苏惠宁</t>
+  </si>
+  <si>
+    <t>冯达豪</t>
+  </si>
+  <si>
+    <t>冯政耀</t>
+  </si>
+  <si>
+    <t>严宇玲</t>
+  </si>
+  <si>
+    <t>谢子怡</t>
+  </si>
+  <si>
+    <t>梁余菲</t>
+  </si>
+  <si>
+    <t>伍嘉良</t>
+  </si>
+  <si>
+    <t>陈品瑞</t>
+  </si>
+  <si>
+    <t>盘梓芊</t>
+  </si>
+  <si>
+    <t>黄维恒</t>
+  </si>
+  <si>
+    <t>陈美彤</t>
+  </si>
+  <si>
+    <t>廖誉铭</t>
+  </si>
+  <si>
+    <t>何昊聪</t>
+  </si>
+  <si>
+    <t>李梓轩</t>
+  </si>
+  <si>
+    <t>苏子源</t>
+  </si>
+  <si>
+    <t>刘峻熙</t>
+  </si>
+  <si>
+    <t>邓皓铖</t>
+  </si>
+  <si>
+    <t>区培铧</t>
+  </si>
+  <si>
+    <t>18688577949</t>
+  </si>
+  <si>
+    <t>叶诗涵</t>
+  </si>
+  <si>
+    <t>13417970887</t>
+  </si>
+  <si>
+    <t>吴泳仪</t>
+  </si>
+  <si>
+    <t>13826860115</t>
+  </si>
+  <si>
+    <t>梁焯俞</t>
+  </si>
+  <si>
+    <t>13509992722</t>
+  </si>
+  <si>
+    <t>季雨泽</t>
+  </si>
+  <si>
+    <t>13826726817</t>
+  </si>
+  <si>
+    <t>刘思源</t>
+  </si>
+  <si>
+    <t>13927143336</t>
+  </si>
+  <si>
+    <t>陈建蓉</t>
+  </si>
+  <si>
+    <t>13826709222</t>
+  </si>
+  <si>
+    <t>廖梓晴</t>
+  </si>
+  <si>
+    <t>13719822977</t>
+  </si>
+  <si>
+    <t>张天佑</t>
+  </si>
+  <si>
+    <t>13642275109</t>
+  </si>
+  <si>
+    <t>何梓豪</t>
+  </si>
+  <si>
+    <t>刘德钧</t>
+  </si>
+  <si>
+    <t>陈睿童</t>
+  </si>
+  <si>
+    <t>陈卓成</t>
+  </si>
+  <si>
+    <t>15819502088</t>
+  </si>
+  <si>
+    <t>张晓玥</t>
+  </si>
+  <si>
+    <t>13435978962</t>
+  </si>
+  <si>
+    <t>温嘉俊</t>
+  </si>
+  <si>
+    <t>张翼飞</t>
+  </si>
+  <si>
+    <t>13719842266</t>
+  </si>
+  <si>
+    <t>苏启烨</t>
+  </si>
+  <si>
+    <t>13824673217</t>
+  </si>
+  <si>
+    <t>林子博</t>
+  </si>
+  <si>
+    <t>13672634197</t>
+  </si>
+  <si>
+    <t>曾祥健</t>
+  </si>
+  <si>
+    <t>陈行简</t>
+  </si>
+  <si>
+    <t>13632082202</t>
+  </si>
+  <si>
+    <t>郑铭瑞</t>
+  </si>
+  <si>
+    <t>梁展鹏</t>
+  </si>
+  <si>
+    <t>梁展骏</t>
+  </si>
+  <si>
+    <t>刘俊源</t>
+  </si>
+  <si>
+    <t>刘俊滨</t>
+  </si>
+  <si>
+    <t>梁均豪</t>
+  </si>
+  <si>
+    <t>莫昊霖</t>
+  </si>
+  <si>
+    <t>叶谨维</t>
+  </si>
+  <si>
+    <t>李铮亮</t>
+  </si>
+  <si>
+    <t>黎竞漪</t>
+  </si>
+  <si>
+    <t>赵紫迎</t>
+  </si>
+  <si>
+    <t>成俊涛</t>
+  </si>
+  <si>
+    <t>梁浩翔</t>
+  </si>
+  <si>
+    <t>梁思宁</t>
+  </si>
+  <si>
+    <t>何浩斌</t>
+  </si>
+  <si>
+    <t>傅子仪</t>
+  </si>
+  <si>
+    <t>傅运远</t>
+  </si>
+  <si>
+    <t>梁庭健</t>
+  </si>
+  <si>
+    <t>欧俊锋</t>
+  </si>
+  <si>
+    <t>欧怡利</t>
+  </si>
+  <si>
+    <t>叶立斌</t>
+  </si>
+  <si>
+    <t>温嘉欣</t>
+  </si>
+  <si>
+    <t>温开阳</t>
+  </si>
+  <si>
+    <t>郑芷珊</t>
+  </si>
+  <si>
+    <t>郑芷渝</t>
+  </si>
+  <si>
+    <t>区峻瑜</t>
+  </si>
+  <si>
+    <t>梁利宁</t>
+  </si>
+  <si>
+    <t>陈晓枫</t>
+  </si>
+  <si>
+    <t>赖冠文</t>
+  </si>
+  <si>
+    <t>杜三妹</t>
+  </si>
+  <si>
+    <t>叶冠鸿</t>
+  </si>
+  <si>
+    <t>张捷皓</t>
+  </si>
+  <si>
+    <t>叶冠发</t>
+  </si>
+  <si>
+    <t>刘世华</t>
+  </si>
+  <si>
+    <t>邓凯瀚</t>
+  </si>
+  <si>
+    <t>戚乐儿</t>
+  </si>
+  <si>
+    <t>戚效昌</t>
+  </si>
+  <si>
+    <t>李浩桦</t>
+  </si>
+  <si>
+    <t>梁俊宇</t>
+  </si>
+  <si>
+    <t>陈芸晞</t>
+  </si>
+  <si>
+    <t>陈一言</t>
+  </si>
+  <si>
+    <t>李籽帆</t>
+  </si>
+  <si>
+    <t>郑蔚杰</t>
+  </si>
+  <si>
+    <t>陆柏宇</t>
+  </si>
+  <si>
+    <t>王思琪</t>
+  </si>
+  <si>
+    <t>李珊珊</t>
+  </si>
+  <si>
+    <t>傅淑怡</t>
+  </si>
+  <si>
+    <t>黄敬锟</t>
+  </si>
+  <si>
+    <t>苏梓航</t>
+  </si>
+  <si>
+    <t>麦宗亮</t>
+  </si>
+  <si>
+    <t>何彦静</t>
+  </si>
+  <si>
+    <t>何彦颜</t>
+  </si>
+  <si>
+    <t>周哲茹</t>
+  </si>
+  <si>
+    <t>张玮嘉</t>
+  </si>
+  <si>
+    <t>张伟睿</t>
+  </si>
+  <si>
+    <t>吴子敖</t>
+  </si>
+  <si>
+    <t>韦鸿宇</t>
+  </si>
+  <si>
+    <t>黄可琪</t>
+  </si>
+  <si>
+    <t>黎忆玮</t>
+  </si>
+  <si>
+    <t>黎忆甜</t>
+  </si>
+  <si>
+    <t>王荣毅</t>
+  </si>
+  <si>
+    <t>王荣锐</t>
+  </si>
+  <si>
+    <t>李心碧</t>
+  </si>
+  <si>
+    <t>李心然</t>
+  </si>
+  <si>
+    <t>潘炜烨</t>
+  </si>
+  <si>
+    <t>伍冠恒</t>
+  </si>
+  <si>
+    <t>黎静希</t>
+  </si>
+  <si>
+    <t>黎卓轩</t>
+  </si>
+  <si>
+    <t>陈映彤</t>
+  </si>
+  <si>
+    <t>李国乾</t>
+  </si>
+  <si>
+    <t>张宝之</t>
+  </si>
+  <si>
+    <t>苏朝瑜</t>
+  </si>
+  <si>
+    <t>张珈敏</t>
+  </si>
+  <si>
+    <t>梁炜恒</t>
+  </si>
+  <si>
+    <t>梁海锐</t>
   </si>
 </sst>
 </file>
@@ -233,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,10 +721,10 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -264,41 +735,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,7 +762,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,14 +791,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -341,7 +799,53 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,40 +859,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,8 +875,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,19 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +948,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,19 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,55 +1032,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,19 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,17 +1094,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +1126,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,32 +1136,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,179 +1160,250 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -894,36 +1423,38 @@
     <cellStyle name="警告文本" xfId="16" builtinId="11"/>
     <cellStyle name="标题" xfId="17" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 8" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="常规 10" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1215,36 +1746,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.325" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="D1" s="2">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2">
         <v>2</v>
       </c>
       <c r="G1" s="4">
@@ -1252,20 +1787,20 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="4">
@@ -1273,20 +1808,20 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4">
@@ -1294,20 +1829,20 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4">
@@ -1315,20 +1850,20 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="4">
@@ -1336,20 +1871,20 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -1357,20 +1892,20 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="4">
@@ -1378,20 +1913,20 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="4">
@@ -1399,20 +1934,20 @@
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="4">
@@ -1420,20 +1955,20 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>13</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
       <c r="G10" s="4">
@@ -1441,20 +1976,20 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="4">
@@ -1462,20 +1997,20 @@
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>13</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="4">
@@ -1483,20 +2018,20 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="4">
@@ -1504,20 +2039,20 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="4">
@@ -1525,20 +2060,20 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="4">
@@ -1546,20 +2081,20 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -1567,20 +2102,20 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="4">
@@ -1588,20 +2123,20 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>13</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="4">
@@ -1609,20 +2144,20 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="4">
@@ -1630,20 +2165,20 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="4">
@@ -1651,20 +2186,20 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="4">
@@ -1672,20 +2207,20 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
         <v>10</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>2</v>
       </c>
       <c r="G22" s="4">
@@ -1693,20 +2228,20 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>2</v>
       </c>
       <c r="G23" s="4">
@@ -1714,20 +2249,20 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="4">
@@ -1735,20 +2270,20 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="1">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="4">
@@ -1756,20 +2291,20 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="4">
@@ -1777,20 +2312,20 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>15</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="G27" s="4">
@@ -1798,20 +2333,20 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="4">
@@ -1819,20 +2354,20 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
         <v>10</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="4">
@@ -1840,20 +2375,20 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
         <v>10</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="4">
@@ -1861,20 +2396,20 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="4">
@@ -1882,20 +2417,20 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
         <v>10</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="4">
@@ -1903,20 +2438,20 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
         <v>10</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="4">
@@ -1924,20 +2459,20 @@
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="4">
@@ -1945,20 +2480,20 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
         <v>10</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="4">
@@ -1966,20 +2501,20 @@
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
         <v>10</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="4">
@@ -1987,20 +2522,20 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2">
         <v>10</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="4">
@@ -2008,20 +2543,20 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
         <v>10</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="4">
@@ -2029,20 +2564,20 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
         <v>10</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="4">
@@ -2050,20 +2585,20 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="1">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
         <v>10</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="4">
@@ -2071,20 +2606,20 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="1">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
         <v>10</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="4">
@@ -2092,20 +2627,20 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="2">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="2">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2">
         <v>10</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="4">
@@ -2113,20 +2648,20 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
         <v>11</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>15</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="4">
@@ -2134,20 +2669,20 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44" s="1">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
         <v>10</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="4">
@@ -2155,20 +2690,20 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="2">
         <v>2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>12</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>16</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="4">
@@ -2176,20 +2711,20 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="2">
         <v>3</v>
       </c>
-      <c r="D46" s="1">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
         <v>10</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="4">
@@ -2197,20 +2732,20 @@
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="1">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2">
         <v>10</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="4">
@@ -2218,20 +2753,20 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="1">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
         <v>10</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="4">
@@ -2239,20 +2774,20 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="1">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="2">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2">
         <v>10</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="4">
@@ -2260,20 +2795,20 @@
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="1">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="2">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2">
         <v>10</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="4">
@@ -2281,20 +2816,20 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="D51" s="2">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="4">
@@ -2302,20 +2837,20 @@
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:7">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>12</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>14</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="4">
@@ -2323,20 +2858,20 @@
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:7">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53" s="1">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="D53" s="2">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="4">
@@ -2344,20 +2879,20 @@
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:7">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="2">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="4">
@@ -2365,20 +2900,20 @@
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:7">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="2">
         <v>3</v>
       </c>
-      <c r="D55" s="1">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="2">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="4">
@@ -2386,20 +2921,20 @@
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:7">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="2">
         <v>3</v>
       </c>
-      <c r="D56" s="1">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="D56" s="2">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" s="4">
@@ -2407,20 +2942,20 @@
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="2">
         <v>3</v>
       </c>
-      <c r="D57" s="1">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="D57" s="2">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="4">
@@ -2428,20 +2963,20 @@
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="2">
         <v>3</v>
       </c>
-      <c r="D58" s="1">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="D58" s="2">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2">
         <v>2</v>
       </c>
       <c r="G58" s="4">
@@ -2449,20 +2984,20 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="2">
         <v>3</v>
       </c>
-      <c r="D59" s="1">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
         <v>10</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="4">
@@ -2470,20 +3005,20 @@
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="2">
         <v>3</v>
       </c>
-      <c r="D60" s="1">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="2">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2">
         <v>10</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" s="4">
@@ -2491,20 +3026,20 @@
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="D61" s="1">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="2">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2">
         <v>10</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>1</v>
       </c>
       <c r="G61" s="4">
@@ -2512,62 +3047,62 @@
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1">
+      <c r="B62" s="3"/>
+      <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="D62" s="1">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="D62" s="2">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2">
         <v>2</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="5">
         <v>630</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1">
+      <c r="B63" s="3"/>
+      <c r="C63" s="2">
         <v>3</v>
       </c>
-      <c r="D63" s="1">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
+      <c r="D63" s="2">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
         <v>630</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:7">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
         <v>11</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>15</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="4">
@@ -2575,20 +3110,20 @@
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:7">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>12</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>14</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="4">
@@ -2596,20 +3131,20 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:7">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1">
+      <c r="B66" s="3"/>
+      <c r="C66" s="2">
         <v>3</v>
       </c>
-      <c r="D66" s="1">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="D66" s="2">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" s="4">
@@ -2617,20 +3152,20 @@
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:7">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="3"/>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
         <v>11</v>
       </c>
       <c r="E67" s="4">
         <v>13</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="4">
@@ -2638,20 +3173,20 @@
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:7">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="3"/>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
         <v>11</v>
       </c>
       <c r="E68" s="4">
         <v>13</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="4">
@@ -2659,24 +3194,3256 @@
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="2">
         <v>3</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>9</v>
       </c>
       <c r="E69" s="4">
         <v>9</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>2</v>
       </c>
       <c r="G69" s="4">
         <v>630</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>18922663112</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>13927176583</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>13622468967</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>13729762667</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>13729709529</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
+        <v>5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>15917157202</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>13435963502</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>13672601080</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>15016592385</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6">
+        <v>5</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>18666763168</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>5</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>18316460140</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>5</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8">
+        <v>13537906079</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8">
+        <v>13411702158</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>13411700826</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>5</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>13411700826</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>5</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6">
+        <v>18023380666</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>5</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>13435969643</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>5</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>13826850833</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>18211312652</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>5</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6">
+        <v>13360197183</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>5</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6">
+        <v>13826780862</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6">
+        <v>18927182629</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6">
+        <v>18927182629</v>
+      </c>
+      <c r="C92" s="6">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>5</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6">
+        <v>13729785000</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>5</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6">
+        <v>13719835626</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>5</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6">
+        <v>13719835626</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>5</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6">
+        <v>5</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>13653082322</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>5</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6">
+        <v>13653082322</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>5</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6">
+        <v>13826862551</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>5</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6">
+        <v>13653081322</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>5</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7">
+        <v>18322663112</v>
+      </c>
+      <c r="C101" s="7">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7">
+        <v>18322663112</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7">
+        <v>5</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="11">
+        <v>13826863622</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9">
+        <v>6</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="11">
+        <v>13542424423</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="9">
+        <v>6</v>
+      </c>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="11">
+        <v>13826850138</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7">
+        <v>1</v>
+      </c>
+      <c r="E105" s="9">
+        <v>6</v>
+      </c>
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11">
+        <v>13719809867</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1</v>
+      </c>
+      <c r="E106" s="9">
+        <v>6</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11">
+        <v>18938493188</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7">
+        <v>1</v>
+      </c>
+      <c r="E107" s="9">
+        <v>6</v>
+      </c>
+      <c r="F107" s="7">
+        <v>1</v>
+      </c>
+      <c r="G107" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11">
+        <v>13682502221</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="9">
+        <v>6</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11">
+        <v>13421895333</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
+      <c r="E109" s="9">
+        <v>6</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11">
+        <v>15088198680</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
+      <c r="E110" s="9">
+        <v>6</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11">
+        <v>18023799133</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7">
+        <v>1</v>
+      </c>
+      <c r="E111" s="9">
+        <v>6</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11">
+        <v>18023399006</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="E112" s="9">
+        <v>6</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11">
+        <v>13902373299</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
+      <c r="E113" s="9">
+        <v>6</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11">
+        <v>15219641975</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="9">
+        <v>6</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11">
+        <v>13902373299</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1</v>
+      </c>
+      <c r="E115" s="9">
+        <v>6</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="11">
+        <v>13729781783</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
+      <c r="E116" s="9">
+        <v>6</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1</v>
+      </c>
+      <c r="E117" s="9">
+        <v>6</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1</v>
+      </c>
+      <c r="E118" s="9">
+        <v>6</v>
+      </c>
+      <c r="F118" s="7">
+        <v>1</v>
+      </c>
+      <c r="G118" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="9">
+        <v>6</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+      <c r="E120" s="9">
+        <v>6</v>
+      </c>
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1</v>
+      </c>
+      <c r="E121" s="9">
+        <v>6</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1</v>
+      </c>
+      <c r="E122" s="9">
+        <v>6</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7">
+        <v>1</v>
+      </c>
+      <c r="E123" s="9">
+        <v>6</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
+      <c r="E124" s="9">
+        <v>6</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="9">
+        <v>6</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="9">
+        <v>6</v>
+      </c>
+      <c r="F126" s="6">
+        <v>1</v>
+      </c>
+      <c r="G126" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1</v>
+      </c>
+      <c r="E127" s="9">
+        <v>6</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="7">
+        <v>1</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1</v>
+      </c>
+      <c r="E128" s="9">
+        <v>6</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="9">
+        <v>6</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="9">
+        <v>6</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1</v>
+      </c>
+      <c r="E131" s="9">
+        <v>6</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="7">
+        <v>1</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
+      <c r="E132" s="9">
+        <v>6</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="9">
+        <v>6</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="9">
+        <v>6</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
+      <c r="G134" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
+      <c r="E135" s="9">
+        <v>6</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="7">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="9">
+        <v>2</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1</v>
+      </c>
+      <c r="G136" s="9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="7">
+        <v>2</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="9">
+        <v>2</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
+      <c r="G137" s="9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="6">
+        <v>13580689051</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="9">
+        <v>1</v>
+      </c>
+      <c r="E138" s="9">
+        <v>7</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="6">
+        <v>13580689051</v>
+      </c>
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="9">
+        <v>1</v>
+      </c>
+      <c r="E139" s="9">
+        <v>7</v>
+      </c>
+      <c r="F139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="6">
+        <v>13417983092</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="9">
+        <v>7</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="6">
+        <v>13417983092</v>
+      </c>
+      <c r="C141" s="6">
+        <v>1</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>7</v>
+      </c>
+      <c r="F141" s="9">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="6">
+        <v>18127616903</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="9">
+        <v>7</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="6">
+        <v>13923703901</v>
+      </c>
+      <c r="C143" s="6">
+        <v>1</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="9">
+        <v>7</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="6">
+        <v>13826861790</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="9">
+        <v>7</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="6">
+        <v>18998629000</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="E145" s="9">
+        <v>7</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="6">
+        <v>13927138832</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="9">
+        <v>7</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="6">
+        <v>18127616181</v>
+      </c>
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+      <c r="D147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="9">
+        <v>7</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="6">
+        <v>13826701222</v>
+      </c>
+      <c r="C148" s="6">
+        <v>1</v>
+      </c>
+      <c r="D148" s="9">
+        <v>1</v>
+      </c>
+      <c r="E148" s="9">
+        <v>7</v>
+      </c>
+      <c r="F148" s="9">
+        <v>1</v>
+      </c>
+      <c r="G148" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="9">
+        <v>1</v>
+      </c>
+      <c r="E149" s="9">
+        <v>7</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="9">
+        <v>1</v>
+      </c>
+      <c r="E150" s="9">
+        <v>7</v>
+      </c>
+      <c r="F150" s="9">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="6">
+        <v>13542403145</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="9">
+        <v>1</v>
+      </c>
+      <c r="E151" s="9">
+        <v>7</v>
+      </c>
+      <c r="F151" s="9">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="6">
+        <v>13672645999</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1</v>
+      </c>
+      <c r="D152" s="9">
+        <v>1</v>
+      </c>
+      <c r="E152" s="9">
+        <v>7</v>
+      </c>
+      <c r="F152" s="9">
+        <v>1</v>
+      </c>
+      <c r="G152" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="6">
+        <v>13672645999</v>
+      </c>
+      <c r="C153" s="6">
+        <v>1</v>
+      </c>
+      <c r="D153" s="9">
+        <v>1</v>
+      </c>
+      <c r="E153" s="9">
+        <v>7</v>
+      </c>
+      <c r="F153" s="9">
+        <v>1</v>
+      </c>
+      <c r="G153" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="9">
+        <v>1</v>
+      </c>
+      <c r="E154" s="9">
+        <v>7</v>
+      </c>
+      <c r="F154" s="9">
+        <v>1</v>
+      </c>
+      <c r="G154" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="6">
+        <v>18819834499</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="9">
+        <v>1</v>
+      </c>
+      <c r="E155" s="9">
+        <v>7</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="6">
+        <v>13435926885</v>
+      </c>
+      <c r="C156" s="6">
+        <v>1</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
+      <c r="E156" s="9">
+        <v>7</v>
+      </c>
+      <c r="F156" s="9">
+        <v>1</v>
+      </c>
+      <c r="G156" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="6">
+        <v>18218324296</v>
+      </c>
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="E157" s="9">
+        <v>7</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="6">
+        <v>18922664459</v>
+      </c>
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="9">
+        <v>7</v>
+      </c>
+      <c r="F158" s="9">
+        <v>1</v>
+      </c>
+      <c r="G158" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="6">
+        <v>18922664459</v>
+      </c>
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="9">
+        <v>1</v>
+      </c>
+      <c r="E159" s="9">
+        <v>7</v>
+      </c>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
+      <c r="G159" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="6">
+        <v>15016597266</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="9">
+        <v>7</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
+      <c r="G160" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" s="6">
+        <v>15016597266</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="9">
+        <v>1</v>
+      </c>
+      <c r="E161" s="9">
+        <v>7</v>
+      </c>
+      <c r="F161" s="9">
+        <v>1</v>
+      </c>
+      <c r="G161" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" s="6">
+        <v>13509992328</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="9">
+        <v>7</v>
+      </c>
+      <c r="F162" s="9">
+        <v>1</v>
+      </c>
+      <c r="G162" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B163" s="6">
+        <v>13609631366</v>
+      </c>
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="9">
+        <v>7</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6">
+        <v>1</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="9">
+        <v>7</v>
+      </c>
+      <c r="F164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="6">
+        <v>18200927079</v>
+      </c>
+      <c r="C165" s="6">
+        <v>1</v>
+      </c>
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
+      <c r="E165" s="9">
+        <v>7</v>
+      </c>
+      <c r="F165" s="9">
+        <v>1</v>
+      </c>
+      <c r="G165" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" s="6">
+        <v>18200927079</v>
+      </c>
+      <c r="C166" s="9">
+        <v>3</v>
+      </c>
+      <c r="D166" s="9">
+        <v>9</v>
+      </c>
+      <c r="E166" s="9">
+        <v>9</v>
+      </c>
+      <c r="F166" s="9">
+        <v>1</v>
+      </c>
+      <c r="G166" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="6">
+        <v>18200927079</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
+      <c r="D167" s="9">
+        <v>1</v>
+      </c>
+      <c r="E167" s="9">
+        <v>7</v>
+      </c>
+      <c r="F167" s="9">
+        <v>1</v>
+      </c>
+      <c r="G167" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="6">
+        <v>13480354660</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+      <c r="D168" s="9">
+        <v>1</v>
+      </c>
+      <c r="E168" s="9">
+        <v>7</v>
+      </c>
+      <c r="F168" s="9">
+        <v>1</v>
+      </c>
+      <c r="G168" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="13"/>
+      <c r="C169" s="9">
+        <v>3</v>
+      </c>
+      <c r="D169" s="9">
+        <v>9</v>
+      </c>
+      <c r="E169" s="9">
+        <v>9</v>
+      </c>
+      <c r="F169" s="9">
+        <v>1</v>
+      </c>
+      <c r="G169" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" s="6">
+        <v>13537926826</v>
+      </c>
+      <c r="C170" s="9">
+        <v>1</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
+      <c r="E170" s="9">
+        <v>7</v>
+      </c>
+      <c r="F170" s="9">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" s="6">
+        <v>13480354660</v>
+      </c>
+      <c r="C171" s="9">
+        <v>1</v>
+      </c>
+      <c r="D171" s="9">
+        <v>1</v>
+      </c>
+      <c r="E171" s="9">
+        <v>7</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1</v>
+      </c>
+      <c r="G171" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172" s="6">
+        <v>13729769308</v>
+      </c>
+      <c r="C172" s="9">
+        <v>1</v>
+      </c>
+      <c r="D172" s="9">
+        <v>1</v>
+      </c>
+      <c r="E172" s="9">
+        <v>7</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1</v>
+      </c>
+      <c r="G172" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="6">
+        <v>13729769308</v>
+      </c>
+      <c r="C173" s="9">
+        <v>1</v>
+      </c>
+      <c r="D173" s="9">
+        <v>1</v>
+      </c>
+      <c r="E173" s="9">
+        <v>7</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1</v>
+      </c>
+      <c r="G173" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" s="15">
+        <v>15016599228</v>
+      </c>
+      <c r="C174" s="15">
+        <v>1</v>
+      </c>
+      <c r="D174" s="16">
+        <v>1</v>
+      </c>
+      <c r="E174" s="16">
+        <v>8</v>
+      </c>
+      <c r="F174" s="16">
+        <v>1</v>
+      </c>
+      <c r="G174" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175" s="15">
+        <v>18033371333</v>
+      </c>
+      <c r="C175" s="15">
+        <v>1</v>
+      </c>
+      <c r="D175" s="16">
+        <v>1</v>
+      </c>
+      <c r="E175" s="16">
+        <v>8</v>
+      </c>
+      <c r="F175" s="16">
+        <v>1</v>
+      </c>
+      <c r="G175" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="15">
+        <v>13653081800</v>
+      </c>
+      <c r="C176" s="15">
+        <v>1</v>
+      </c>
+      <c r="D176" s="16">
+        <v>1</v>
+      </c>
+      <c r="E176" s="16">
+        <v>8</v>
+      </c>
+      <c r="F176" s="16">
+        <v>1</v>
+      </c>
+      <c r="G176" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" s="15">
+        <v>13729775779</v>
+      </c>
+      <c r="C177" s="15">
+        <v>1</v>
+      </c>
+      <c r="D177" s="16">
+        <v>1</v>
+      </c>
+      <c r="E177" s="16">
+        <v>8</v>
+      </c>
+      <c r="F177" s="16">
+        <v>1</v>
+      </c>
+      <c r="G177" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178" s="15">
+        <v>15219666110</v>
+      </c>
+      <c r="C178" s="15">
+        <v>1</v>
+      </c>
+      <c r="D178" s="16">
+        <v>1</v>
+      </c>
+      <c r="E178" s="16">
+        <v>8</v>
+      </c>
+      <c r="F178" s="16">
+        <v>1</v>
+      </c>
+      <c r="G178" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" s="15">
+        <v>18927159633</v>
+      </c>
+      <c r="C179" s="15">
+        <v>1</v>
+      </c>
+      <c r="D179" s="16">
+        <v>1</v>
+      </c>
+      <c r="E179" s="16">
+        <v>8</v>
+      </c>
+      <c r="F179" s="16">
+        <v>1</v>
+      </c>
+      <c r="G179" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180" s="15">
+        <v>13411789380</v>
+      </c>
+      <c r="C180" s="15">
+        <v>1</v>
+      </c>
+      <c r="D180" s="16">
+        <v>1</v>
+      </c>
+      <c r="E180" s="16">
+        <v>8</v>
+      </c>
+      <c r="F180" s="16">
+        <v>1</v>
+      </c>
+      <c r="G180" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" s="15">
+        <v>13826868161</v>
+      </c>
+      <c r="C181" s="15">
+        <v>1</v>
+      </c>
+      <c r="D181" s="16">
+        <v>1</v>
+      </c>
+      <c r="E181" s="16">
+        <v>8</v>
+      </c>
+      <c r="F181" s="16">
+        <v>1</v>
+      </c>
+      <c r="G181" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182" s="15">
+        <v>13377662085</v>
+      </c>
+      <c r="C182" s="15">
+        <v>1</v>
+      </c>
+      <c r="D182" s="16">
+        <v>1</v>
+      </c>
+      <c r="E182" s="16">
+        <v>8</v>
+      </c>
+      <c r="F182" s="16">
+        <v>1</v>
+      </c>
+      <c r="G182" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" s="15">
+        <v>13435930121</v>
+      </c>
+      <c r="C183" s="15">
+        <v>1</v>
+      </c>
+      <c r="D183" s="16">
+        <v>1</v>
+      </c>
+      <c r="E183" s="16">
+        <v>8</v>
+      </c>
+      <c r="F183" s="16">
+        <v>1</v>
+      </c>
+      <c r="G183" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B184" s="15">
+        <v>15360388184</v>
+      </c>
+      <c r="C184" s="15">
+        <v>1</v>
+      </c>
+      <c r="D184" s="16">
+        <v>1</v>
+      </c>
+      <c r="E184" s="16">
+        <v>8</v>
+      </c>
+      <c r="F184" s="16">
+        <v>1</v>
+      </c>
+      <c r="G184" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B185" s="15">
+        <v>18938493677</v>
+      </c>
+      <c r="C185" s="15">
+        <v>1</v>
+      </c>
+      <c r="D185" s="16">
+        <v>1</v>
+      </c>
+      <c r="E185" s="16">
+        <v>8</v>
+      </c>
+      <c r="F185" s="16">
+        <v>1</v>
+      </c>
+      <c r="G185" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="15">
+        <v>15819527068</v>
+      </c>
+      <c r="C186" s="15">
+        <v>1</v>
+      </c>
+      <c r="D186" s="16">
+        <v>1</v>
+      </c>
+      <c r="E186" s="16">
+        <v>8</v>
+      </c>
+      <c r="F186" s="16">
+        <v>1</v>
+      </c>
+      <c r="G186" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187" s="15">
+        <v>15016590090</v>
+      </c>
+      <c r="C187" s="15">
+        <v>1</v>
+      </c>
+      <c r="D187" s="16">
+        <v>1</v>
+      </c>
+      <c r="E187" s="16">
+        <v>8</v>
+      </c>
+      <c r="F187" s="16">
+        <v>1</v>
+      </c>
+      <c r="G187" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" s="15">
+        <v>15016590090</v>
+      </c>
+      <c r="C188" s="15">
+        <v>1</v>
+      </c>
+      <c r="D188" s="16">
+        <v>1</v>
+      </c>
+      <c r="E188" s="16">
+        <v>8</v>
+      </c>
+      <c r="F188" s="16">
+        <v>1</v>
+      </c>
+      <c r="G188" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B189" s="15">
+        <v>13542420150</v>
+      </c>
+      <c r="C189" s="15">
+        <v>1</v>
+      </c>
+      <c r="D189" s="16">
+        <v>1</v>
+      </c>
+      <c r="E189" s="16">
+        <v>8</v>
+      </c>
+      <c r="F189" s="16">
+        <v>1</v>
+      </c>
+      <c r="G189" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190" s="15">
+        <v>13580663190</v>
+      </c>
+      <c r="C190" s="15">
+        <v>1</v>
+      </c>
+      <c r="D190" s="16">
+        <v>1</v>
+      </c>
+      <c r="E190" s="16">
+        <v>8</v>
+      </c>
+      <c r="F190" s="16">
+        <v>1</v>
+      </c>
+      <c r="G190" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B191" s="15">
+        <v>13580663190</v>
+      </c>
+      <c r="C191" s="15">
+        <v>1</v>
+      </c>
+      <c r="D191" s="16">
+        <v>1</v>
+      </c>
+      <c r="E191" s="16">
+        <v>8</v>
+      </c>
+      <c r="F191" s="16">
+        <v>1</v>
+      </c>
+      <c r="G191" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B192" s="15">
+        <v>13729729430</v>
+      </c>
+      <c r="C192" s="15">
+        <v>1</v>
+      </c>
+      <c r="D192" s="16">
+        <v>1</v>
+      </c>
+      <c r="E192" s="16">
+        <v>8</v>
+      </c>
+      <c r="F192" s="16">
+        <v>1</v>
+      </c>
+      <c r="G192" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193" s="15">
+        <v>13729729430</v>
+      </c>
+      <c r="C193" s="15">
+        <v>1</v>
+      </c>
+      <c r="D193" s="16">
+        <v>1</v>
+      </c>
+      <c r="E193" s="16">
+        <v>8</v>
+      </c>
+      <c r="F193" s="16">
+        <v>1</v>
+      </c>
+      <c r="G193" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194" s="15">
+        <v>13826702588</v>
+      </c>
+      <c r="C194" s="15">
+        <v>1</v>
+      </c>
+      <c r="D194" s="16">
+        <v>1</v>
+      </c>
+      <c r="E194" s="16">
+        <v>8</v>
+      </c>
+      <c r="F194" s="16">
+        <v>1</v>
+      </c>
+      <c r="G194" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B195" s="15">
+        <v>13318915759</v>
+      </c>
+      <c r="C195" s="15">
+        <v>1</v>
+      </c>
+      <c r="D195" s="16">
+        <v>1</v>
+      </c>
+      <c r="E195" s="16">
+        <v>8</v>
+      </c>
+      <c r="F195" s="16">
+        <v>1</v>
+      </c>
+      <c r="G195" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196" s="15">
+        <v>13318915759</v>
+      </c>
+      <c r="C196" s="15">
+        <v>1</v>
+      </c>
+      <c r="D196" s="16">
+        <v>1</v>
+      </c>
+      <c r="E196" s="16">
+        <v>8</v>
+      </c>
+      <c r="F196" s="16">
+        <v>1</v>
+      </c>
+      <c r="G196" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B197" s="15">
+        <v>18023399878</v>
+      </c>
+      <c r="C197" s="15">
+        <v>1</v>
+      </c>
+      <c r="D197" s="16">
+        <v>1</v>
+      </c>
+      <c r="E197" s="16">
+        <v>8</v>
+      </c>
+      <c r="F197" s="16">
+        <v>1</v>
+      </c>
+      <c r="G197" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B198" s="15">
+        <v>18023399878</v>
+      </c>
+      <c r="C198" s="15">
+        <v>1</v>
+      </c>
+      <c r="D198" s="16">
+        <v>1</v>
+      </c>
+      <c r="E198" s="16">
+        <v>8</v>
+      </c>
+      <c r="F198" s="16">
+        <v>1</v>
+      </c>
+      <c r="G198" s="15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15">
+        <v>1</v>
+      </c>
+      <c r="D199" s="16">
+        <v>1</v>
+      </c>
+      <c r="E199" s="16">
+        <v>8</v>
+      </c>
+      <c r="F199" s="16">
+        <v>1</v>
+      </c>
+      <c r="G199" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15">
+        <v>1</v>
+      </c>
+      <c r="D200" s="16">
+        <v>1</v>
+      </c>
+      <c r="E200" s="16">
+        <v>8</v>
+      </c>
+      <c r="F200" s="16">
+        <v>1</v>
+      </c>
+      <c r="G200" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15">
+        <v>1</v>
+      </c>
+      <c r="D201" s="16">
+        <v>1</v>
+      </c>
+      <c r="E201" s="16">
+        <v>8</v>
+      </c>
+      <c r="F201" s="16">
+        <v>1</v>
+      </c>
+      <c r="G201" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15">
+        <v>1</v>
+      </c>
+      <c r="D202" s="16">
+        <v>1</v>
+      </c>
+      <c r="E202" s="16">
+        <v>8</v>
+      </c>
+      <c r="F202" s="16">
+        <v>1</v>
+      </c>
+      <c r="G202" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15">
+        <v>1</v>
+      </c>
+      <c r="D203" s="16">
+        <v>1</v>
+      </c>
+      <c r="E203" s="16">
+        <v>8</v>
+      </c>
+      <c r="F203" s="16">
+        <v>1</v>
+      </c>
+      <c r="G203" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15">
+        <v>1</v>
+      </c>
+      <c r="D204" s="16">
+        <v>1</v>
+      </c>
+      <c r="E204" s="16">
+        <v>8</v>
+      </c>
+      <c r="F204" s="16">
+        <v>1</v>
+      </c>
+      <c r="G204" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15">
+        <v>1</v>
+      </c>
+      <c r="D205" s="16">
+        <v>1</v>
+      </c>
+      <c r="E205" s="16">
+        <v>8</v>
+      </c>
+      <c r="F205" s="16">
+        <v>1</v>
+      </c>
+      <c r="G205" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15">
+        <v>1</v>
+      </c>
+      <c r="D206" s="16">
+        <v>1</v>
+      </c>
+      <c r="E206" s="16">
+        <v>8</v>
+      </c>
+      <c r="F206" s="16">
+        <v>1</v>
+      </c>
+      <c r="G206" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207" s="15">
+        <v>15088186663</v>
+      </c>
+      <c r="C207" s="15">
+        <v>1</v>
+      </c>
+      <c r="D207" s="16">
+        <v>1</v>
+      </c>
+      <c r="E207" s="16">
+        <v>8</v>
+      </c>
+      <c r="F207" s="16">
+        <v>1</v>
+      </c>
+      <c r="G207" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" s="15">
+        <v>13826863031</v>
+      </c>
+      <c r="C208" s="15">
+        <v>1</v>
+      </c>
+      <c r="D208" s="16">
+        <v>1</v>
+      </c>
+      <c r="E208" s="16">
+        <v>8</v>
+      </c>
+      <c r="F208" s="16">
+        <v>1</v>
+      </c>
+      <c r="G208" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209" s="15">
+        <v>13417991100</v>
+      </c>
+      <c r="C209" s="15">
+        <v>1</v>
+      </c>
+      <c r="D209" s="16">
+        <v>1</v>
+      </c>
+      <c r="E209" s="16">
+        <v>8</v>
+      </c>
+      <c r="F209" s="16">
+        <v>1</v>
+      </c>
+      <c r="G209" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210" s="15">
+        <v>13927133980</v>
+      </c>
+      <c r="C210" s="15">
+        <v>1</v>
+      </c>
+      <c r="D210" s="16">
+        <v>1</v>
+      </c>
+      <c r="E210" s="16">
+        <v>8</v>
+      </c>
+      <c r="F210" s="16">
+        <v>1</v>
+      </c>
+      <c r="G210" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211" s="15">
+        <v>13826864981</v>
+      </c>
+      <c r="C211" s="15">
+        <v>1</v>
+      </c>
+      <c r="D211" s="16">
+        <v>1</v>
+      </c>
+      <c r="E211" s="16">
+        <v>8</v>
+      </c>
+      <c r="F211" s="16">
+        <v>1</v>
+      </c>
+      <c r="G211" s="17">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +6454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2704,7 +6471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
